--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="380">
   <si>
     <t>key</t>
   </si>
@@ -44,10 +44,10 @@
     <t>version_tol_stx_seq</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Sequencing [Tree of Life (ToL)]</t>
-  </si>
-  <si>
-    <t>TBC tol_stx_seq</t>
+    <t>Spatial Transcriptomics Sequencing (ST-Seq) [Tree of Life (ToL)]</t>
+  </si>
+  <si>
+    <t>Spatial transcriptomics sequencing to analyse gene expression in tissues with respect to their spatial organisation, following the Tree of Life (ToL) standards, which leverage genomic technologies to explore life’s diversity and origins.</t>
   </si>
   <si>
     <t>tol</t>
@@ -98,7 +98,7 @@
     <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
   </si>
   <si>
-    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behavior. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
+    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behaviour. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
   </si>
   <si>
     <t>The workflow or protocol followed during the study.</t>
@@ -140,12 +140,18 @@
     <t>Spatial Transcriptomics</t>
   </si>
   <si>
+    <t>orcid_id</t>
+  </si>
+  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>affiliation</t>
   </si>
   <si>
@@ -155,25 +161,43 @@
     <t>funding</t>
   </si>
   <si>
+    <t>orcid_id (optional)</t>
+  </si>
+  <si>
+    <t>email (optional)</t>
+  </si>
+  <si>
     <t>funder (optional)</t>
   </si>
   <si>
     <t>funding (optional)</t>
   </si>
   <si>
-    <t>The first name of a Person.</t>
+    <t>A 16-digit number that uniquely identify researchers.</t>
+  </si>
+  <si>
+    <t>e.g. 0000-1234-5678-9012</t>
+  </si>
+  <si>
+    <t>A first name (or given name) is the personal name given to an individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Jane</t>
   </si>
   <si>
-    <t>The last name of a Person.</t>
+    <t>A last name (or surname) is the family name passed down from one generation to the next for the individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Doe</t>
   </si>
   <si>
-    <t>An organization that this person is affiliated with. For example, a school/university, a club, or a team.</t>
+    <t>A unique identifier used to send and receive electronic messages (emails) over the internet.</t>
+  </si>
+  <si>
+    <t>e.g. jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>An organisation or institution that this person is associated with.</t>
   </si>
   <si>
     <t>e.g. University of Liverpool</t>
@@ -185,7 +209,7 @@
     <t>e.g. BBSRC</t>
   </si>
   <si>
-    <t>A Grant that directly or indirectly provide funding or sponsorship for this item.</t>
+    <t>A grant that directly or indirectly provides funding or sponsorship for the person to conduct the study.</t>
   </si>
   <si>
     <t>e.g. GRAK3489</t>
@@ -1016,12 +1040,12 @@
     <t>e.g. 75</t>
   </si>
   <si>
+    <t>lib_prep_id</t>
+  </si>
+  <si>
     <t>file_id</t>
   </si>
   <si>
-    <t>lib_prep_id</t>
-  </si>
-  <si>
     <t>read_1_file</t>
   </si>
   <si>
@@ -1049,10 +1073,10 @@
     <t>file_type</t>
   </si>
   <si>
+    <t>lib_prep_id (optional)</t>
+  </si>
+  <si>
     <t>file_id (optional)</t>
-  </si>
-  <si>
-    <t>lib_prep_id (optional)</t>
   </si>
   <si>
     <t>read_1_file (optional)</t>
@@ -1134,7 +1158,7 @@
     <t>e.g. file001</t>
   </si>
   <si>
-    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, archive etc.</t>
   </si>
   <si>
     <t>e.g. fastq</t>
@@ -1529,8 +1553,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="206.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1577,7 +1601,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CB59" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD53" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1658,7 +1682,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC70" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B4A8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1696,10 +1720,10 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="4:7">
@@ -1707,10 +1731,10 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="4:7">
@@ -1718,10 +1742,10 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="4:7">
@@ -1729,10 +1753,10 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="4:7">
@@ -1740,10 +1764,10 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="4:7">
@@ -1751,10 +1775,10 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="4:7">
@@ -1762,10 +1786,10 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="4:7">
@@ -1773,546 +1797,546 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="F13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="F15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="F16" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G42" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G45" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G56" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G58" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G60" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G61" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G65" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G66" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G67" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G69" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G70" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G71" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G72" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G73" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G74" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G75" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G76" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G77" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G78" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G79" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2322,71 +2346,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2394,13 +2448,16 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B8EE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C1BC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:H4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2437,99 +2494,99 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2537,49 +2594,49 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2603,7 +2660,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A3FA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CB1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -2667,76 +2724,76 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -2744,76 +2801,76 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2821,76 +2878,76 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2923,7 +2980,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE88" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D6F0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -2987,43 +3044,43 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3031,43 +3088,43 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3075,43 +3132,43 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3133,7 +3190,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E1A3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC40" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3169,16 +3226,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3186,40 +3243,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3227,40 +3284,40 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3268,40 +3325,40 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3322,7 +3379,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9F1C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C2C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -1601,7 +1601,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BD53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A8F8" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1682,7 +1682,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B4A8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F487" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2453,7 +2453,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C1BC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE9B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2660,7 +2660,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9CB1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9DA5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -2980,7 +2980,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D6F0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DCED" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -3190,7 +3190,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DC40" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CCB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3379,7 +3379,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C2C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD40" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -1601,7 +1601,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A8F8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE50" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1682,7 +1682,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F487" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC23" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2453,7 +2453,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE9B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A57B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2660,7 +2660,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DA5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F019" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -2980,7 +2980,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DCED" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ADA4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -3190,7 +3190,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9CCB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C4F8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3379,7 +3379,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BD40" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D1FE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="381">
   <si>
     <t>key</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Spatial Transcriptomics Sequencing (ST-Seq) [Tree of Life (ToL)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics sequencing to analyse gene expression in tissues with respect to their spatial organisation, following the Tree of Life (ToL) standards, which leverage genomic technologies to explore life’s diversity and origins.</t>
+    <t>Spatial transcriptomics sequencing following the Tree of Life (ToL) standards, which leverage genomic technologies to explore life’s diversity and origins.</t>
   </si>
   <si>
     <t>tol</t>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>Holdfast Fungi</t>
+  </si>
+  <si>
+    <t>Inflorescence</t>
   </si>
   <si>
     <t>Intestine</t>
@@ -1554,7 +1557,7 @@
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="206.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1601,7 +1604,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EE50" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B215" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1682,7 +1685,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC23" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="80E1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1705,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:G79"/>
+  <dimension ref="D5:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2337,6 +2340,14 @@
       </c>
       <c r="G79" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2464,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A57B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E91C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2660,7 +2671,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F019" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E211" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -2671,10 +2682,10 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$79</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>HiddenDropdowns!$G$5:$G$79</formula1>
+      <formula1>HiddenDropdowns!$G$5:$G$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
@@ -2724,76 +2735,76 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -2801,76 +2812,76 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2878,76 +2889,76 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2980,7 +2991,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ADA4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F9EE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -3044,43 +3055,43 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3088,43 +3099,43 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3132,43 +3143,43 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3190,7 +3201,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C4F8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC3F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3243,40 +3254,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3284,40 +3295,40 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3325,40 +3336,40 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3379,7 +3390,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D1FE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CD3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -1604,7 +1604,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B215" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DAAA" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1685,7 +1685,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="80E1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CF5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2464,7 +2464,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E91C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DAC7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2671,7 +2671,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E211" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="833A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -2991,7 +2991,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F9EE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB62" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -3201,7 +3201,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC3F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A0A5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3390,7 +3390,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9CD3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9829" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="503">
   <si>
     <t>key</t>
   </si>
@@ -104,7 +104,7 @@
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
-    <t>e.g. spatial_transcriptomics</t>
+    <t>e.g. Laser microdissection</t>
   </si>
   <si>
     <t>The sorting or visualisation technology used.</t>
@@ -401,6 +401,9 @@
     <t>Bodywall</t>
   </si>
   <si>
+    <t>Bone Marrow Hematopoietic Niches</t>
+  </si>
+  <si>
     <t>Bract</t>
   </si>
   <si>
@@ -416,6 +419,18 @@
     <t>Cephalothorax</t>
   </si>
   <si>
+    <t>Cortex Development In Roots</t>
+  </si>
+  <si>
+    <t>Developing Brain</t>
+  </si>
+  <si>
+    <t>Developing Embryo</t>
+  </si>
+  <si>
+    <t>Developing Seed Coat</t>
+  </si>
+  <si>
     <t>Dna Extract</t>
   </si>
   <si>
@@ -425,6 +440,9 @@
     <t>Eggshell</t>
   </si>
   <si>
+    <t>Embryonic Stem Cells</t>
+  </si>
+  <si>
     <t>Endocrine Tissue</t>
   </si>
   <si>
@@ -437,12 +455,30 @@
     <t>Fat Body</t>
   </si>
   <si>
+    <t>Fetal Heart</t>
+  </si>
+  <si>
+    <t>Fetal Kidney</t>
+  </si>
+  <si>
+    <t>Fetal Liver</t>
+  </si>
+  <si>
+    <t>Fetal Lung</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>Floral Meristem</t>
+  </si>
+  <si>
     <t>Flower</t>
   </si>
   <si>
+    <t>Gastrulation-Stage Embryo</t>
+  </si>
+  <si>
     <t>Gill Animal</t>
   </si>
   <si>
@@ -452,6 +488,9 @@
     <t>Gonad</t>
   </si>
   <si>
+    <t>Gut</t>
+  </si>
+  <si>
     <t>Hair</t>
   </si>
   <si>
@@ -467,6 +506,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Hypocotyl</t>
+  </si>
+  <si>
     <t>Inflorescence</t>
   </si>
   <si>
@@ -479,9 +521,15 @@
     <t>Leaf</t>
   </si>
   <si>
+    <t>Leaf Primordia</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>Limb Bud</t>
+  </si>
+  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -509,6 +557,15 @@
     <t>Mycorrhiza</t>
   </si>
   <si>
+    <t>Neonatal Retina</t>
+  </si>
+  <si>
+    <t>Neural Crest Cells</t>
+  </si>
+  <si>
+    <t>Nodules</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -518,6 +575,9 @@
     <t>Not Provided</t>
   </si>
   <si>
+    <t>Olfactory Epithelium</t>
+  </si>
+  <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
@@ -536,18 +596,36 @@
     <t>Oviduct</t>
   </si>
   <si>
+    <t>Ovule Primordium</t>
+  </si>
+  <si>
     <t>Pancreas</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
+    <t>Placental Trophoblast Cells</t>
+  </si>
+  <si>
+    <t>Pollen Mother Cells</t>
+  </si>
+  <si>
     <t>Posterior Body</t>
   </si>
   <si>
+    <t>Postnatal Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizome Meristem </t>
+  </si>
+  <si>
     <t>Root</t>
   </si>
   <si>
+    <t>Root Apical Meristem</t>
+  </si>
+  <si>
     <t>Scales</t>
   </si>
   <si>
@@ -563,9 +641,15 @@
     <t>Shoot</t>
   </si>
   <si>
+    <t>Shoot Apical Meristem</t>
+  </si>
+  <si>
     <t>Skin</t>
   </si>
   <si>
+    <t>Somitic Mesoderm</t>
+  </si>
+  <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
@@ -605,9 +689,15 @@
     <t>Thorax</t>
   </si>
   <si>
+    <t>Trichome Precursor Cells</t>
+  </si>
+  <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
+    <t>Vascular Cambium</t>
+  </si>
+  <si>
     <t>Whole Organism</t>
   </si>
   <si>
@@ -683,6 +773,9 @@
     <t>cell_phenotype</t>
   </si>
   <si>
+    <t>design_description</t>
+  </si>
+  <si>
     <t>library_prep_id (optional)</t>
   </si>
   <si>
@@ -752,6 +845,9 @@
     <t>cell_phenotype (optional)</t>
   </si>
   <si>
+    <t>design_description (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
@@ -896,6 +992,12 @@
     <t>e.g. CD41-</t>
   </si>
   <si>
+    <t>The design of the library including details of how it was constructed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. </t>
+  </si>
+  <si>
     <t>sequencing_id</t>
   </si>
   <si>
@@ -1043,6 +1145,255 @@
     <t>e.g. 75</t>
   </si>
   <si>
+    <t>454 Gs</t>
+  </si>
+  <si>
+    <t>454 Gs 20</t>
+  </si>
+  <si>
+    <t>454 Gs Flx</t>
+  </si>
+  <si>
+    <t>454 Gs Flx Titanium</t>
+  </si>
+  <si>
+    <t>454 Gs Flx+</t>
+  </si>
+  <si>
+    <t>454 Gs Junior</t>
+  </si>
+  <si>
+    <t>Ab 310 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl-W Genetic Analysis System</t>
+  </si>
+  <si>
+    <t>Ab Solid 3 Plus System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4 System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4Hq System</t>
+  </si>
+  <si>
+    <t>Ab Solid Pi System</t>
+  </si>
+  <si>
+    <t>Ab Solid System</t>
+  </si>
+  <si>
+    <t>Ab Solid System 2.0</t>
+  </si>
+  <si>
+    <t>Ab Solid System 3.0</t>
+  </si>
+  <si>
+    <t>Bgiseq-50</t>
+  </si>
+  <si>
+    <t>Bgiseq-500</t>
+  </si>
+  <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400 Fast</t>
+  </si>
+  <si>
+    <t>Dnbseq-G50</t>
+  </si>
+  <si>
+    <t>Dnbseq-T10X4Rs</t>
+  </si>
+  <si>
+    <t>Dnbseq-T7</t>
+  </si>
+  <si>
+    <t>Element Aviti</t>
+  </si>
+  <si>
+    <t>Fastaseq 300</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>Genocare 1600</t>
+  </si>
+  <si>
+    <t>Genolab M</t>
+  </si>
+  <si>
+    <t>Gridion</t>
+  </si>
+  <si>
+    <t>Gs111</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Ii</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Iix</t>
+  </si>
+  <si>
+    <t>Illumina Hiscansq</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 3000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 4000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Five</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Ten</t>
+  </si>
+  <si>
+    <t>Illumina Iseq 100</t>
+  </si>
+  <si>
+    <t>Illumina Miniseq</t>
+  </si>
+  <si>
+    <t>Illumina Miseq</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 500</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 550</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq 6000</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Prime</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>Ion Torrent Pgm</t>
+  </si>
+  <si>
+    <t>Ion Torrent Proton</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 Xl</t>
+  </si>
+  <si>
+    <t>Mgiseq-2000Rs</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
+    <t>Nextseq 1000</t>
+  </si>
+  <si>
+    <t>Nextseq 2000</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Pacbio Rs</t>
+  </si>
+  <si>
+    <t>Pacbio Rs Ii</t>
+  </si>
+  <si>
+    <t>Promethion</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Sentosa Sq301</t>
+  </si>
+  <si>
+    <t>Sequel</t>
+  </si>
+  <si>
+    <t>Sequel Ii</t>
+  </si>
+  <si>
+    <t>Sequel Iie</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Ug 100</t>
+  </si>
+  <si>
     <t>lib_prep_id</t>
   </si>
   <si>
@@ -1061,10 +1412,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_checksum</t>
-  </si>
-  <si>
-    <t>index_checksum</t>
+    <t>read_1_checksum</t>
+  </si>
+  <si>
+    <t>read_2_checksum</t>
+  </si>
+  <si>
+    <t>index_1_checksum</t>
+  </si>
+  <si>
+    <t>index_2_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -1094,10 +1451,16 @@
     <t>index_2_file (optional)</t>
   </si>
   <si>
-    <t>read_checksum (optional)</t>
-  </si>
-  <si>
-    <t>index_checksum (optional)</t>
+    <t>read_1_checksum (optional)</t>
+  </si>
+  <si>
+    <t>read_2_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_1_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_checksum (optional)</t>
   </si>
   <si>
     <t>white_list_barcode_file (optional)</t>
@@ -1136,16 +1499,19 @@
     <t>e.g. file2_i2.fastq.gz</t>
   </si>
   <si>
-    <t>Result of a hash function calculated on the content of both the read 1 file and the read 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d41d8cd98f00b204e9800998ecf8427e,5a105e8b9d40e1329780d62ea2265d8a77a1a45e</t>
-  </si>
-  <si>
-    <t>Result of a hash function calculated on the content of both the index 1 file and the index 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d3486ae9136e7856bc42212385ea797094475802,b7e23ec29af22b0b4e41da31e868d57226121c84</t>
+    <t>Result of a hash function calculated on the content of the read 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>e.g. d41d8cd98f00b204e9800998ecf8427e</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of the read 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
   </si>
   <si>
     <t>A file containing the known cell barcodes in the
@@ -1604,7 +1970,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DAAA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8CC9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1685,7 +2051,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9CF5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C0A2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1694,12 +2060,9 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
       <formula1>HiddenDropdowns!$D$5:$D$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>"10X,10X 3',Mas Seq,Smartseq,Vizgen"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,19 +2071,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:G80"/>
+  <dimension ref="D5:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:7">
       <c r="D5" t="s">
-        <v>31</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
         <v>121</v>
@@ -1731,7 +2094,7 @@
     </row>
     <row r="6" spans="4:7">
       <c r="D6" t="s">
-        <v>32</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
         <v>122</v>
@@ -1742,7 +2105,7 @@
     </row>
     <row r="7" spans="4:7">
       <c r="D7" t="s">
-        <v>33</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
         <v>123</v>
@@ -1753,7 +2116,7 @@
     </row>
     <row r="8" spans="4:7">
       <c r="D8" t="s">
-        <v>34</v>
+        <v>377</v>
       </c>
       <c r="F8" t="s">
         <v>124</v>
@@ -1764,7 +2127,7 @@
     </row>
     <row r="9" spans="4:7">
       <c r="D9" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
         <v>125</v>
@@ -1775,7 +2138,7 @@
     </row>
     <row r="10" spans="4:7">
       <c r="D10" t="s">
-        <v>36</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
@@ -1786,7 +2149,7 @@
     </row>
     <row r="11" spans="4:7">
       <c r="D11" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
         <v>127</v>
@@ -1797,7 +2160,7 @@
     </row>
     <row r="12" spans="4:7">
       <c r="D12" t="s">
-        <v>38</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
         <v>128</v>
@@ -1807,6 +2170,9 @@
       </c>
     </row>
     <row r="13" spans="4:7">
+      <c r="D13" t="s">
+        <v>382</v>
+      </c>
       <c r="F13" t="s">
         <v>129</v>
       </c>
@@ -1815,6 +2181,9 @@
       </c>
     </row>
     <row r="14" spans="4:7">
+      <c r="D14" t="s">
+        <v>383</v>
+      </c>
       <c r="F14" t="s">
         <v>130</v>
       </c>
@@ -1823,6 +2192,9 @@
       </c>
     </row>
     <row r="15" spans="4:7">
+      <c r="D15" t="s">
+        <v>384</v>
+      </c>
       <c r="F15" t="s">
         <v>131</v>
       </c>
@@ -1831,6 +2203,9 @@
       </c>
     </row>
     <row r="16" spans="4:7">
+      <c r="D16" t="s">
+        <v>385</v>
+      </c>
       <c r="F16" t="s">
         <v>132</v>
       </c>
@@ -1838,7 +2213,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="4:7">
+      <c r="D17" t="s">
+        <v>386</v>
+      </c>
       <c r="F17" t="s">
         <v>133</v>
       </c>
@@ -1846,7 +2224,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="4:7">
+      <c r="D18" t="s">
+        <v>387</v>
+      </c>
       <c r="F18" t="s">
         <v>134</v>
       </c>
@@ -1854,7 +2235,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="4:7">
+      <c r="D19" t="s">
+        <v>388</v>
+      </c>
       <c r="F19" t="s">
         <v>135</v>
       </c>
@@ -1862,7 +2246,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="4:7">
+      <c r="D20" t="s">
+        <v>389</v>
+      </c>
       <c r="F20" t="s">
         <v>136</v>
       </c>
@@ -1870,7 +2257,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="4:7">
+      <c r="D21" t="s">
+        <v>390</v>
+      </c>
       <c r="F21" t="s">
         <v>137</v>
       </c>
@@ -1878,7 +2268,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="4:7">
+      <c r="D22" t="s">
+        <v>391</v>
+      </c>
       <c r="F22" t="s">
         <v>138</v>
       </c>
@@ -1886,7 +2279,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="4:7">
+      <c r="D23" t="s">
+        <v>392</v>
+      </c>
       <c r="F23" t="s">
         <v>139</v>
       </c>
@@ -1894,7 +2290,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="4:7">
+      <c r="D24" t="s">
+        <v>393</v>
+      </c>
       <c r="F24" t="s">
         <v>140</v>
       </c>
@@ -1902,7 +2301,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="4:7">
+      <c r="D25" t="s">
+        <v>394</v>
+      </c>
       <c r="F25" t="s">
         <v>141</v>
       </c>
@@ -1910,7 +2312,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="4:7">
+      <c r="D26" t="s">
+        <v>395</v>
+      </c>
       <c r="F26" t="s">
         <v>142</v>
       </c>
@@ -1918,7 +2323,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="4:7">
+      <c r="D27" t="s">
+        <v>396</v>
+      </c>
       <c r="F27" t="s">
         <v>143</v>
       </c>
@@ -1926,7 +2334,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="4:7">
+      <c r="D28" t="s">
+        <v>397</v>
+      </c>
       <c r="F28" t="s">
         <v>144</v>
       </c>
@@ -1934,7 +2345,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="4:7">
+      <c r="D29" t="s">
+        <v>398</v>
+      </c>
       <c r="F29" t="s">
         <v>145</v>
       </c>
@@ -1942,7 +2356,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="4:7">
+      <c r="D30" t="s">
+        <v>399</v>
+      </c>
       <c r="F30" t="s">
         <v>146</v>
       </c>
@@ -1950,7 +2367,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="4:7">
+      <c r="D31" t="s">
+        <v>400</v>
+      </c>
       <c r="F31" t="s">
         <v>147</v>
       </c>
@@ -1958,7 +2378,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="6:7">
+    <row r="32" spans="4:7">
+      <c r="D32" t="s">
+        <v>401</v>
+      </c>
       <c r="F32" t="s">
         <v>148</v>
       </c>
@@ -1966,7 +2389,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="4:7">
+      <c r="D33" t="s">
+        <v>402</v>
+      </c>
       <c r="F33" t="s">
         <v>149</v>
       </c>
@@ -1974,7 +2400,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="4:7">
+      <c r="D34" t="s">
+        <v>403</v>
+      </c>
       <c r="F34" t="s">
         <v>150</v>
       </c>
@@ -1982,7 +2411,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="4:7">
+      <c r="D35" t="s">
+        <v>404</v>
+      </c>
       <c r="F35" t="s">
         <v>151</v>
       </c>
@@ -1990,7 +2422,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="4:7">
+      <c r="D36" t="s">
+        <v>405</v>
+      </c>
       <c r="F36" t="s">
         <v>152</v>
       </c>
@@ -1998,7 +2433,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="4:7">
+      <c r="D37" t="s">
+        <v>406</v>
+      </c>
       <c r="F37" t="s">
         <v>153</v>
       </c>
@@ -2006,7 +2444,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="4:7">
+      <c r="D38" t="s">
+        <v>407</v>
+      </c>
       <c r="F38" t="s">
         <v>154</v>
       </c>
@@ -2014,7 +2455,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="4:7">
+      <c r="D39" t="s">
+        <v>408</v>
+      </c>
       <c r="F39" t="s">
         <v>155</v>
       </c>
@@ -2022,7 +2466,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="4:7">
+      <c r="D40" t="s">
+        <v>409</v>
+      </c>
       <c r="F40" t="s">
         <v>156</v>
       </c>
@@ -2030,7 +2477,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="4:7">
+      <c r="D41" t="s">
+        <v>410</v>
+      </c>
       <c r="F41" t="s">
         <v>157</v>
       </c>
@@ -2038,7 +2488,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="4:7">
+      <c r="D42" t="s">
+        <v>411</v>
+      </c>
       <c r="F42" t="s">
         <v>158</v>
       </c>
@@ -2046,7 +2499,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="4:7">
+      <c r="D43" t="s">
+        <v>412</v>
+      </c>
       <c r="F43" t="s">
         <v>159</v>
       </c>
@@ -2054,7 +2510,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="4:7">
+      <c r="D44" t="s">
+        <v>413</v>
+      </c>
       <c r="F44" t="s">
         <v>160</v>
       </c>
@@ -2062,7 +2521,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="6:7">
+    <row r="45" spans="4:7">
+      <c r="D45" t="s">
+        <v>414</v>
+      </c>
       <c r="F45" t="s">
         <v>161</v>
       </c>
@@ -2070,7 +2532,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="6:7">
+    <row r="46" spans="4:7">
+      <c r="D46" t="s">
+        <v>415</v>
+      </c>
       <c r="F46" t="s">
         <v>162</v>
       </c>
@@ -2078,7 +2543,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="6:7">
+    <row r="47" spans="4:7">
+      <c r="D47" t="s">
+        <v>416</v>
+      </c>
       <c r="F47" t="s">
         <v>163</v>
       </c>
@@ -2086,7 +2554,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="6:7">
+    <row r="48" spans="4:7">
+      <c r="D48" t="s">
+        <v>417</v>
+      </c>
       <c r="F48" t="s">
         <v>164</v>
       </c>
@@ -2094,7 +2565,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="6:7">
+    <row r="49" spans="4:7">
+      <c r="D49" t="s">
+        <v>418</v>
+      </c>
       <c r="F49" t="s">
         <v>165</v>
       </c>
@@ -2102,7 +2576,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="6:7">
+    <row r="50" spans="4:7">
+      <c r="D50" t="s">
+        <v>419</v>
+      </c>
       <c r="F50" t="s">
         <v>166</v>
       </c>
@@ -2110,7 +2587,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="6:7">
+    <row r="51" spans="4:7">
+      <c r="D51" t="s">
+        <v>420</v>
+      </c>
       <c r="F51" t="s">
         <v>167</v>
       </c>
@@ -2118,7 +2598,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="6:7">
+    <row r="52" spans="4:7">
+      <c r="D52" t="s">
+        <v>421</v>
+      </c>
       <c r="F52" t="s">
         <v>168</v>
       </c>
@@ -2126,7 +2609,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="6:7">
+    <row r="53" spans="4:7">
+      <c r="D53" t="s">
+        <v>422</v>
+      </c>
       <c r="F53" t="s">
         <v>169</v>
       </c>
@@ -2134,7 +2620,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="6:7">
+    <row r="54" spans="4:7">
+      <c r="D54" t="s">
+        <v>423</v>
+      </c>
       <c r="F54" t="s">
         <v>170</v>
       </c>
@@ -2142,7 +2631,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="6:7">
+    <row r="55" spans="4:7">
+      <c r="D55" t="s">
+        <v>424</v>
+      </c>
       <c r="F55" t="s">
         <v>171</v>
       </c>
@@ -2150,7 +2642,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="6:7">
+    <row r="56" spans="4:7">
+      <c r="D56" t="s">
+        <v>425</v>
+      </c>
       <c r="F56" t="s">
         <v>172</v>
       </c>
@@ -2158,7 +2653,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="6:7">
+    <row r="57" spans="4:7">
+      <c r="D57" t="s">
+        <v>426</v>
+      </c>
       <c r="F57" t="s">
         <v>173</v>
       </c>
@@ -2166,7 +2664,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="6:7">
+    <row r="58" spans="4:7">
+      <c r="D58" t="s">
+        <v>427</v>
+      </c>
       <c r="F58" t="s">
         <v>174</v>
       </c>
@@ -2174,7 +2675,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="6:7">
+    <row r="59" spans="4:7">
+      <c r="D59" t="s">
+        <v>428</v>
+      </c>
       <c r="F59" t="s">
         <v>175</v>
       </c>
@@ -2182,7 +2686,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="6:7">
+    <row r="60" spans="4:7">
+      <c r="D60" t="s">
+        <v>429</v>
+      </c>
       <c r="F60" t="s">
         <v>176</v>
       </c>
@@ -2190,7 +2697,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="6:7">
+    <row r="61" spans="4:7">
+      <c r="D61" t="s">
+        <v>430</v>
+      </c>
       <c r="F61" t="s">
         <v>177</v>
       </c>
@@ -2198,7 +2708,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="6:7">
+    <row r="62" spans="4:7">
+      <c r="D62" t="s">
+        <v>431</v>
+      </c>
       <c r="F62" t="s">
         <v>178</v>
       </c>
@@ -2206,7 +2719,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="6:7">
+    <row r="63" spans="4:7">
+      <c r="D63" t="s">
+        <v>432</v>
+      </c>
       <c r="F63" t="s">
         <v>179</v>
       </c>
@@ -2214,7 +2730,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="6:7">
+    <row r="64" spans="4:7">
+      <c r="D64" t="s">
+        <v>433</v>
+      </c>
       <c r="F64" t="s">
         <v>180</v>
       </c>
@@ -2222,7 +2741,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="4:7">
+      <c r="D65" t="s">
+        <v>434</v>
+      </c>
       <c r="F65" t="s">
         <v>181</v>
       </c>
@@ -2230,7 +2752,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="4:7">
+      <c r="D66" t="s">
+        <v>435</v>
+      </c>
       <c r="F66" t="s">
         <v>182</v>
       </c>
@@ -2238,7 +2763,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="4:7">
+      <c r="D67" t="s">
+        <v>436</v>
+      </c>
       <c r="F67" t="s">
         <v>183</v>
       </c>
@@ -2246,7 +2774,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="6:7">
+    <row r="68" spans="4:7">
+      <c r="D68" t="s">
+        <v>437</v>
+      </c>
       <c r="F68" t="s">
         <v>184</v>
       </c>
@@ -2254,7 +2785,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="6:7">
+    <row r="69" spans="4:7">
+      <c r="D69" t="s">
+        <v>438</v>
+      </c>
       <c r="F69" t="s">
         <v>185</v>
       </c>
@@ -2262,7 +2796,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="6:7">
+    <row r="70" spans="4:7">
+      <c r="D70" t="s">
+        <v>439</v>
+      </c>
       <c r="F70" t="s">
         <v>186</v>
       </c>
@@ -2270,7 +2807,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="6:7">
+    <row r="71" spans="4:7">
+      <c r="D71" t="s">
+        <v>440</v>
+      </c>
       <c r="F71" t="s">
         <v>187</v>
       </c>
@@ -2278,7 +2818,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="6:7">
+    <row r="72" spans="4:7">
+      <c r="D72" t="s">
+        <v>441</v>
+      </c>
       <c r="F72" t="s">
         <v>188</v>
       </c>
@@ -2286,7 +2829,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="6:7">
+    <row r="73" spans="4:7">
+      <c r="D73" t="s">
+        <v>442</v>
+      </c>
       <c r="F73" t="s">
         <v>189</v>
       </c>
@@ -2294,7 +2840,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="6:7">
+    <row r="74" spans="4:7">
+      <c r="D74" t="s">
+        <v>443</v>
+      </c>
       <c r="F74" t="s">
         <v>190</v>
       </c>
@@ -2302,7 +2851,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="6:7">
+    <row r="75" spans="4:7">
+      <c r="D75" t="s">
+        <v>444</v>
+      </c>
       <c r="F75" t="s">
         <v>191</v>
       </c>
@@ -2310,7 +2862,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="6:7">
+    <row r="76" spans="4:7">
+      <c r="D76" t="s">
+        <v>445</v>
+      </c>
       <c r="F76" t="s">
         <v>192</v>
       </c>
@@ -2318,7 +2873,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="6:7">
+    <row r="77" spans="4:7">
+      <c r="D77" t="s">
+        <v>446</v>
+      </c>
       <c r="F77" t="s">
         <v>193</v>
       </c>
@@ -2326,7 +2884,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="6:7">
+    <row r="78" spans="4:7">
+      <c r="D78" t="s">
+        <v>447</v>
+      </c>
       <c r="F78" t="s">
         <v>194</v>
       </c>
@@ -2334,7 +2895,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="6:7">
+    <row r="79" spans="4:7">
+      <c r="D79" t="s">
+        <v>448</v>
+      </c>
       <c r="F79" t="s">
         <v>195</v>
       </c>
@@ -2342,12 +2906,276 @@
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="6:7">
+    <row r="80" spans="4:7">
+      <c r="D80" t="s">
+        <v>449</v>
+      </c>
       <c r="F80" t="s">
         <v>196</v>
       </c>
       <c r="G80" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7">
+      <c r="D81" t="s">
+        <v>450</v>
+      </c>
+      <c r="F81" t="s">
+        <v>197</v>
+      </c>
+      <c r="G81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7">
+      <c r="D82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" t="s">
+        <v>198</v>
+      </c>
+      <c r="G82" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7">
+      <c r="D83" t="s">
+        <v>452</v>
+      </c>
+      <c r="F83" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7">
+      <c r="D84" t="s">
+        <v>453</v>
+      </c>
+      <c r="F84" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7">
+      <c r="D85" t="s">
+        <v>454</v>
+      </c>
+      <c r="F85" t="s">
+        <v>201</v>
+      </c>
+      <c r="G85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7">
+      <c r="D86" t="s">
+        <v>455</v>
+      </c>
+      <c r="F86" t="s">
+        <v>202</v>
+      </c>
+      <c r="G86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7">
+      <c r="D87" t="s">
+        <v>456</v>
+      </c>
+      <c r="F87" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7">
+      <c r="F88" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7">
+      <c r="F89" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7">
+      <c r="F90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7">
+      <c r="F91" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7">
+      <c r="F92" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7">
+      <c r="F93" t="s">
+        <v>209</v>
+      </c>
+      <c r="G93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7">
+      <c r="F94" t="s">
+        <v>210</v>
+      </c>
+      <c r="G94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7">
+      <c r="F95" t="s">
+        <v>211</v>
+      </c>
+      <c r="G95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7">
+      <c r="F96" t="s">
+        <v>212</v>
+      </c>
+      <c r="G96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" t="s">
+        <v>215</v>
+      </c>
+      <c r="G99" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7">
+      <c r="F100" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="F101" t="s">
+        <v>217</v>
+      </c>
+      <c r="G101" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7">
+      <c r="F102" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7">
+      <c r="F103" t="s">
+        <v>219</v>
+      </c>
+      <c r="G103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7">
+      <c r="F104" t="s">
+        <v>220</v>
+      </c>
+      <c r="G104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7">
+      <c r="F105" t="s">
+        <v>221</v>
+      </c>
+      <c r="G105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7">
+      <c r="F106" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7">
+      <c r="F107" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7">
+      <c r="F108" t="s">
+        <v>224</v>
+      </c>
+      <c r="G108" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7">
+      <c r="F109" t="s">
+        <v>225</v>
+      </c>
+      <c r="G109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7">
+      <c r="F110" t="s">
+        <v>226</v>
+      </c>
+      <c r="G110" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +3292,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DAC7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BAC1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2671,7 +3499,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="833A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D369" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -2682,10 +3510,10 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>HiddenDropdowns!$G$5:$G$80</formula1>
+      <formula1>HiddenDropdowns!$G$5:$G$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
@@ -2697,7 +3525,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2728,240 +3556,250 @@
     <col min="23" max="23" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="64.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="66.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="61" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>273</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>321</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>322</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2989,13 +3827,14 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AB62" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC4A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="A4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:Y4">
+  <conditionalFormatting sqref="A1:Z4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3055,43 +3894,43 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3099,43 +3938,43 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3143,43 +3982,43 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3201,7 +4040,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A0A5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C754" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3210,7 +4049,10 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>HiddenDropdowns!$D$5:$D$87</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
       <formula1>"Other,Paired,Single,Vector"</formula1>
     </dataValidation>
@@ -3230,7 +4072,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3242,137 +4084,155 @@
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>354</v>
+        <v>473</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>355</v>
+        <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>358</v>
+        <v>477</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>359</v>
+        <v>478</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>480</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>497</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>374</v>
+        <v>493</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>376</v>
+        <v>493</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>498</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -3388,13 +4248,15 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9829" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CE60" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A4:O4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:M4">
+  <conditionalFormatting sqref="A1:O4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -1970,7 +1970,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8CC9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9DA7" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2051,7 +2051,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C0A2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AEAB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3292,7 +3292,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BAC1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC30" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3499,7 +3499,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D369" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BEE4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3830,7 +3830,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC4A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF13" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4040,7 +4040,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C754" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CCFE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4252,7 +4252,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE60" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F94" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -1412,16 +1412,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_1_checksum</t>
-  </si>
-  <si>
-    <t>read_2_checksum</t>
-  </si>
-  <si>
-    <t>index_1_checksum</t>
-  </si>
-  <si>
-    <t>index_2_checksum</t>
+    <t>read_1_file_checksum</t>
+  </si>
+  <si>
+    <t>read_2_file_checksum</t>
+  </si>
+  <si>
+    <t>index_1_file_checksum</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -1451,16 +1451,16 @@
     <t>index_2_file (optional)</t>
   </si>
   <si>
-    <t>read_1_checksum (optional)</t>
-  </si>
-  <si>
-    <t>read_2_checksum (optional)</t>
-  </si>
-  <si>
-    <t>index_1_checksum (optional)</t>
-  </si>
-  <si>
-    <t>index_2_checksum (optional)</t>
+    <t>read_1_file_checksum (optional)</t>
+  </si>
+  <si>
+    <t>read_2_file_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_1_file_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum (optional)</t>
   </si>
   <si>
     <t>white_list_barcode_file (optional)</t>
@@ -1487,13 +1487,13 @@
     <t>e.g. file2_r2.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 1.</t>
+    <t>The name of the file that contains index 1.</t>
   </si>
   <si>
     <t>e.g. file1_i1.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 2.</t>
+    <t>The name of the file that contains index 2.</t>
   </si>
   <si>
     <t>e.g. file2_i2.fastq.gz</t>
@@ -1970,7 +1970,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9DA7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8041" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2051,7 +2051,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AEAB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="93DF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3292,7 +3292,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC30" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FAD7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3499,7 +3499,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BEE4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4B5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3830,7 +3830,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF13" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E911" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4040,7 +4040,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CCFE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FEEA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4083,7 +4083,7 @@
     <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -4252,7 +4252,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F94" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9638" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="501">
   <si>
     <t>key</t>
   </si>
@@ -1394,9 +1394,6 @@
     <t>Ug 100</t>
   </si>
   <si>
-    <t>lib_prep_id</t>
-  </si>
-  <si>
     <t>file_id</t>
   </si>
   <si>
@@ -1431,9 +1428,6 @@
   </si>
   <si>
     <t>file_type</t>
-  </si>
-  <si>
-    <t>lib_prep_id (optional)</t>
   </si>
   <si>
     <t>file_id (optional)</t>
@@ -1970,7 +1964,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8041" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E682" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2051,7 +2045,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="93DF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A3EE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3292,7 +3286,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FAD7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F341" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3499,7 +3493,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4B5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F7CA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3830,7 +3824,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E911" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA83" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4040,7 +4034,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FEEA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F0FA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4096,46 +4090,46 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>470</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4149,40 +4143,40 @@
         <v>351</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4199,37 +4193,37 @@
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4252,7 +4246,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9638" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BABD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
